--- a/04_memo/map07.xlsx
+++ b/04_memo/map07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AD756D-1BE8-4DC8-9436-6C737C7FEEE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8070D6-6E15-4A82-A72A-BFF066BA8281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -723,78 +723,77 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="78">
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="93">
     <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -804,7 +803,8 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -814,77 +814,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -894,8 +824,77 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -905,7 +904,8 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -915,77 +915,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -995,8 +925,77 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1006,7 +1005,8 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1016,77 +1016,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1096,8 +1026,77 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1107,7 +1106,8 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1117,77 +1117,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1197,8 +1127,77 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1208,7 +1207,8 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1218,6 +1218,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0000FF"/>
         </patternFill>
       </fill>
@@ -1226,6 +1236,117 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1669,7 +1790,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2809,248 +2930,248 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="M4:T4 M6:T10 Q5:T5 A12:K16 A18:K18 A17:E17 V4:W10">
-    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A11:K11 A6:L10 A5:F5">
-    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="54" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="55" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="56" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="58" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:T16 L18:W18 S17:T17 V11:W17">
-    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:P5">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:R17">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U17">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map07.xlsx
+++ b/04_memo/map07.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8070D6-6E15-4A82-A72A-BFF066BA8281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C9317E-10B9-4BF6-8F7D-1AF05248087A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -723,77 +723,78 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+          <fgColor theme="0"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -803,8 +804,7 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -814,7 +814,77 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -824,77 +894,8 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+          <fgColor theme="0"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -904,8 +905,7 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -915,7 +915,77 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -925,77 +995,8 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+          <fgColor theme="0"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1005,8 +1006,7 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1016,7 +1016,77 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1026,77 +1096,8 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+          <fgColor theme="0"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1106,8 +1107,7 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1117,7 +1117,77 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1127,77 +1197,8 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+          <fgColor theme="0"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1207,8 +1208,7 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1218,16 +1218,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0000FF"/>
         </patternFill>
       </fill>
@@ -1236,117 +1226,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1790,10 +1669,13 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="4.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -2422,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -2476,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -2494,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -2548,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -2563,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -2623,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <v>1</v>
@@ -2656,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2674,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="4">
         <v>1</v>
@@ -2707,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2767,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
         <v>1</v>
@@ -2930,248 +2812,248 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="M4:T4 M6:T10 Q5:T5 A12:K16 A18:K18 A17:E17 V4:W10">
-    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A11:K11 A6:L10 A5:F5">
-    <cfRule type="cellIs" dxfId="92" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:T16 L18:W18 S17:T17 V11:W17">
-    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:P5">
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:R17">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U17">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map07.xlsx
+++ b/04_memo/map07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C9317E-10B9-4BF6-8F7D-1AF05248087A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8416ADB4-C97E-4710-B751-16A4017C32A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -723,7 +723,108 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1669,7 +1770,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1803,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1818,37 +1919,37 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
         <v>2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>10</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
       </c>
       <c r="T5" s="1">
         <v>7</v>
@@ -1875,37 +1976,37 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -1923,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="3">
         <v>1</v>
@@ -2115,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2154,7 +2255,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2235,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2283,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U11" s="3">
         <v>1</v>
@@ -2364,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" s="1"/>
     </row>
@@ -2403,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2538,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2556,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="4">
         <v>1</v>
@@ -2595,25 +2696,25 @@
         <v>1</v>
       </c>
       <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -2625,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -2643,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="3">
         <v>1</v>
@@ -2670,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2682,40 +2783,40 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1">
-        <v>10</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
       <c r="T17" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
@@ -2812,248 +2913,248 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="M4:T4 M6:T10 Q5:T5 A12:K16 A18:K18 A17:E17 V4:W10">
-    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="71" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A11:K11 A6:L10 A5:F5">
-    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="54" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="55" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="56" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="58" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:T16 L18:W18 S17:T17 V11:W17">
-    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:P5">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:R17">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U17">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map07.xlsx
+++ b/04_memo/map07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8416ADB4-C97E-4710-B751-16A4017C32A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C9613-BC2C-483D-8924-BCBAA13A45C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,14 +196,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -656,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,16 +658,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,7 +709,4148 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="624">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1770,13 +5897,10 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="5" max="5" width="4.3984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1827,22 +5951,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1872,22 +5996,22 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
         <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
@@ -1895,73 +6019,73 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>7</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1"/>
     </row>
@@ -1970,12 +6094,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="1">
@@ -1984,38 +6108,38 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="G6" s="4">
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
@@ -2023,14 +6147,14 @@
       <c r="S6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>1</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
         <v>1</v>
@@ -2039,27 +6163,27 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1">
@@ -2069,13 +6193,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -2083,29 +6207,29 @@
       <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
+      <c r="T7" s="1">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1"/>
     </row>
@@ -2119,58 +6243,58 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>1</v>
       </c>
       <c r="V8" s="1">
@@ -2183,100 +6307,100 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4">
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>7</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2299,29 +6423,29 @@
       <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4">
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
         <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1</v>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1"/>
     </row>
@@ -2333,22 +6457,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>7</v>
+      <c r="H11" s="1">
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -2371,23 +6495,23 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="4">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
         <v>2</v>
       </c>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
       <c r="S11" s="1">
         <v>1</v>
       </c>
-      <c r="T11" s="3">
-        <v>10</v>
-      </c>
-      <c r="U11" s="3">
-        <v>1</v>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>1</v>
@@ -2399,28 +6523,28 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2443,56 +6567,56 @@
       <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4">
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1</v>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>0</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -2515,29 +6639,29 @@
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1</v>
-      </c>
-      <c r="R13" s="4">
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>7</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -2551,58 +6675,58 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>10</v>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <v>1</v>
       </c>
       <c r="V14" s="1">
@@ -2615,27 +6739,27 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15" s="1">
@@ -2645,13 +6769,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -2659,29 +6783,29 @@
       <c r="O15" s="1">
         <v>1</v>
       </c>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1</v>
-      </c>
-      <c r="R15" s="4">
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
         <v>1</v>
       </c>
       <c r="S15" s="1">
         <v>1</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="1">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1"/>
     </row>
@@ -2690,12 +6814,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16" s="1">
@@ -2705,37 +6829,37 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
@@ -2743,14 +6867,14 @@
       <c r="S16" s="1">
         <v>1</v>
       </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
         <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1">
         <v>1</v>
@@ -2759,52 +6883,52 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
         <v>7</v>
       </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -2813,19 +6937,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>8</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1"/>
     </row>
@@ -2834,22 +6958,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -2879,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
         <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
         <v>1</v>
@@ -2912,249 +7036,1971 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="M4:T4 M6:T10 Q5:T5 A12:K16 A18:K18 A17:E17 V4:W10">
-    <cfRule type="cellIs" dxfId="90" priority="66" operator="equal">
+  <conditionalFormatting sqref="M10:N10 A17:C18 H12:K13 A15:C15 E15:F15 E18:I18 A12:C12 E12:F12 H15:I15 M9">
+    <cfRule type="cellIs" dxfId="623" priority="1249" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="1250" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="1251" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="1252" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="1253" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="1254" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="1255" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="616" priority="1256" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="615" priority="1257" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="1258" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="1259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="1260" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="611" priority="1261" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A11:K11 A6:L10 A5:F5">
-    <cfRule type="cellIs" dxfId="77" priority="53" operator="equal">
+  <conditionalFormatting sqref="K9 J10:L10 H11:K11 A4:I4 A10:I12 A18:I18 H17:I17 A13:C17 H13:I15 E13:F17 H7:I9 H5:I5 A5:C9 E5:F8">
+    <cfRule type="cellIs" dxfId="610" priority="1236" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="1237" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="1238" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="1239" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="1240" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="1241" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="60" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="1242" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="603" priority="1243" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="602" priority="1244" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="1245" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="1246" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="1247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="1248" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:T16 L18:W18 S17:T17 V11:W17">
-    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
+  <conditionalFormatting sqref="L12:N12 L11:M11 M13:N13">
+    <cfRule type="cellIs" dxfId="597" priority="1223" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="1224" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="1225" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="1226" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="1227" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="1228" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="1229" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="590" priority="1230" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="1231" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="1232" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="587" priority="1233" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="1234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="585" priority="1235" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:P5">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="584" priority="1080" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="1081" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="1082" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="1083" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="1084" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="1085" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="1086" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="1087" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="576" priority="1088" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="1089" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="1090" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="1091" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="572" priority="1092" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:R17">
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="571" priority="1067" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="1068" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="1069" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="1070" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="1071" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="1072" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="1073" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="564" priority="1074" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="563" priority="1075" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="1076" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="1077" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="1078" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="1079" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U17">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="558" priority="1054" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="1055" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="1056" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="1057" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="1058" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="1059" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="1060" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="551" priority="1061" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="1062" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="1063" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="548" priority="1064" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="1065" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="546" priority="1066" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="cellIs" dxfId="545" priority="1041" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="1042" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="543" priority="1043" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="542" priority="1044" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="541" priority="1045" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="540" priority="1046" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="539" priority="1047" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="1048" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="537" priority="1049" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="536" priority="1050" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="1051" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="534" priority="1052" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="533" priority="1053" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="532" priority="1028" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="531" priority="1029" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="530" priority="1030" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="529" priority="1031" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="528" priority="1032" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="527" priority="1033" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="1034" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="525" priority="1035" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="524" priority="1036" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="1037" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="1038" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="521" priority="1039" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="1040" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 A9:C9">
+    <cfRule type="cellIs" dxfId="519" priority="1015" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="518" priority="1016" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="517" priority="1017" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="516" priority="1018" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="515" priority="1019" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="1020" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="513" priority="1021" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="512" priority="1022" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="1023" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="510" priority="1024" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="1025" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="1026" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="1027" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:F5 H5">
+    <cfRule type="cellIs" dxfId="506" priority="937" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="938" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="504" priority="939" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="503" priority="940" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="941" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="501" priority="942" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="500" priority="943" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="944" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="945" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="497" priority="946" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="947" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="495" priority="948" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="494" priority="949" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F17 H17:I17">
+    <cfRule type="cellIs" dxfId="493" priority="872" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="492" priority="873" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="491" priority="874" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="875" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="876" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="488" priority="877" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="487" priority="878" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="879" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="485" priority="880" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="484" priority="881" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="882" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="482" priority="883" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="884" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="480" priority="677" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="479" priority="678" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="679" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="477" priority="680" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="476" priority="681" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="682" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="683" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="473" priority="684" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="685" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="471" priority="686" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="687" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="688" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="689" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G12">
+    <cfRule type="cellIs" dxfId="467" priority="664" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="665" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="465" priority="666" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="464" priority="667" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="668" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="669" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="461" priority="670" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="671" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="672" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="458" priority="673" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="674" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="675" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="676" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:F11">
+    <cfRule type="cellIs" dxfId="454" priority="651" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="652" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="452" priority="653" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="654" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="655" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="449" priority="656" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="657" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="658" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="659" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="660" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="661" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="443" priority="662" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="663" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D12">
+    <cfRule type="cellIs" dxfId="441" priority="638" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="440" priority="639" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="640" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="641" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="642" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="643" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="644" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="645" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="646" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="647" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="431" priority="648" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="649" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="650" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="428" priority="612" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="613" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="614" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="425" priority="615" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="616" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="617" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="422" priority="618" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="619" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="620" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="419" priority="621" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="622" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="623" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="416" priority="624" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 H14:I14 E14:F14">
+    <cfRule type="cellIs" dxfId="415" priority="586" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="587" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="413" priority="588" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="589" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="590" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="410" priority="591" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="592" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="593" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="594" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="595" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="596" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="597" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="598" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5 I7:I9">
+    <cfRule type="cellIs" dxfId="402" priority="573" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="401" priority="574" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="575" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="399" priority="576" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="398" priority="577" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="578" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="579" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="395" priority="580" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="581" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="582" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="583" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="584" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="585" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:C16 E16:F16">
+    <cfRule type="cellIs" dxfId="389" priority="534" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="535" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="536" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="386" priority="537" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="538" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="539" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="383" priority="540" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="541" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="542" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="543" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="544" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="545" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="546" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I10">
+    <cfRule type="cellIs" dxfId="376" priority="521" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="375" priority="522" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="523" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="524" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="525" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="371" priority="526" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="527" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="528" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="529" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="530" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="531" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="365" priority="532" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="533" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 G10">
+    <cfRule type="cellIs" dxfId="363" priority="508" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="509" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="510" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="511" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="359" priority="512" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="513" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="514" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="515" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="516" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="517" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="518" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="519" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="520" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:F13">
+    <cfRule type="cellIs" dxfId="350" priority="443" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="444" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="445" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="347" priority="446" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="447" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="448" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="449" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="450" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="451" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="452" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="453" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="454" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="455" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:F6">
+    <cfRule type="cellIs" dxfId="337" priority="352" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="353" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="354" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="355" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="356" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="357" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="358" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="359" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="360" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="361" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="362" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="363" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="364" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:W4 O10:Q12 O18:W18 O5:P5 R6:S8 O7:P9 U5:W9 O17:P17 O13:P15 R14:S16 U13:W17 S10:W12">
+    <cfRule type="cellIs" dxfId="324" priority="339" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="340" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="341" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="342" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="343" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="344" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="345" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="346" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="347" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="348" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="349" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="350" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="351" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:K4 J8:N8 J6:M6 M4:N4">
+    <cfRule type="cellIs" dxfId="311" priority="326" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="327" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="328" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="329" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="330" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="331" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="332" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="333" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="334" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="335" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="336" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="337" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="338" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:N18">
+    <cfRule type="cellIs" dxfId="298" priority="313" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="314" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="315" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="316" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="317" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="318" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="319" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="320" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="321" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="322" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="323" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="324" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="325" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:N7">
+    <cfRule type="cellIs" dxfId="285" priority="300" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="301" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="302" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="303" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="304" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="305" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="306" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="307" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="308" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="309" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="310" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="311" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="312" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:N5">
+    <cfRule type="cellIs" dxfId="272" priority="287" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="288" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="289" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="290" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="291" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="292" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="293" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="294" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="295" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="296" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="297" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="298" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="299" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="259" priority="274" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="275" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="276" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="277" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="278" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="279" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="280" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="281" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="282" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="283" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="284" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="285" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="286" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6">
+    <cfRule type="cellIs" dxfId="246" priority="261" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="262" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="263" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="264" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="265" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="266" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="268" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="269" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="270" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="271" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="273" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:P6">
+    <cfRule type="cellIs" dxfId="233" priority="248" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="249" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="250" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="251" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="252" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="253" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="255" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="256" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="258" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="260" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:I16">
+    <cfRule type="cellIs" dxfId="220" priority="235" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="236" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="237" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="238" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="239" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="240" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="241" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="242" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="243" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="244" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="245" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="247" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:P16">
+    <cfRule type="cellIs" dxfId="207" priority="222" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="223" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="224" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="225" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="226" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="227" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="229" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="230" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="231" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="232" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="234" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q7">
+    <cfRule type="cellIs" dxfId="194" priority="196" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="197" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="198" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="199" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="200" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="201" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="203" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="204" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="205" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="206" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="208" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="cellIs" dxfId="181" priority="183" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="184" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="185" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="186" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="187" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="188" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="189" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="190" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="191" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="193" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="195" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:S5">
+    <cfRule type="cellIs" dxfId="168" priority="170" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="171" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="172" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="173" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="174" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="175" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="178" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="179" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="180" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="182" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T8">
+    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="165" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:T9">
+    <cfRule type="cellIs" dxfId="142" priority="144" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="146" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="147" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="148" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="149" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="151" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="152" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="154" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14:Q17">
+    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="132" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="138" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="139" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="141" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13 S13">
+    <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="106" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="109" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="113" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:T17">
+    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="93" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="94" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="95" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="101" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="104" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:S17">
+    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="84" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="87" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:R13">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G17 E17:G17">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D17 D13:G13">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G8">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:G9">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D9">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map07.xlsx
+++ b/04_memo/map07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C9613-BC2C-483D-8924-BCBAA13A45C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34999AA0-684D-4544-815A-6925342F7671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -5897,7 +5897,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6019,13 +6019,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -6079,19 +6079,19 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -6193,10 +6193,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1"/>
     </row>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1"/>
     </row>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>7</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -6643,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1"/>
     </row>
@@ -6877,19 +6877,19 @@
         <v>1</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -6943,13 +6943,13 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1"/>
     </row>
